--- a/nr-mv-MS/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/nr-mv-MS/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:08:34+00:00</t>
+    <t>2025-10-08T14:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-mv-MS/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/nr-mv-MS/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:26:13+00:00</t>
+    <t>2025-10-08T14:58:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4787,7 +4787,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>213</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>78</v>
@@ -4904,7 +4904,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>218</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>78</v>
@@ -5021,7 +5021,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>223</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>78</v>
